--- a/data/pca/factorExposure/factorExposure_2018-01-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01163023029337421</v>
+        <v>0.007976104967604114</v>
       </c>
       <c r="C2">
-        <v>-0.005835075536806841</v>
+        <v>0.03091933037175497</v>
       </c>
       <c r="D2">
-        <v>-0.023008724398048</v>
+        <v>-0.02765659505258485</v>
       </c>
       <c r="E2">
-        <v>-0.05889042715800726</v>
+        <v>-0.02297276052211125</v>
       </c>
       <c r="F2">
-        <v>0.03631732910308578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03418347112334016</v>
+      </c>
+      <c r="G2">
+        <v>-0.006898136412131809</v>
+      </c>
+      <c r="H2">
+        <v>-0.0103164502753279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06093384672976026</v>
+        <v>0.05725490471862841</v>
       </c>
       <c r="C3">
-        <v>0.002823802730713607</v>
+        <v>0.08334256194435576</v>
       </c>
       <c r="D3">
-        <v>0.02940407368951637</v>
+        <v>-0.01319710416808628</v>
       </c>
       <c r="E3">
-        <v>-0.2358423810745719</v>
+        <v>-0.07467320525002166</v>
       </c>
       <c r="F3">
-        <v>0.1791355282774859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1004833304857348</v>
+      </c>
+      <c r="G3">
+        <v>-0.06082037112955146</v>
+      </c>
+      <c r="H3">
+        <v>-0.02609486805063167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03412507285890068</v>
+        <v>0.05072204018399412</v>
       </c>
       <c r="C4">
-        <v>0.01586825105660719</v>
+        <v>0.05965977492381774</v>
       </c>
       <c r="D4">
-        <v>-0.03191184099623038</v>
+        <v>-0.02099173012239189</v>
       </c>
       <c r="E4">
-        <v>-0.02573823080195539</v>
+        <v>0.003796673214351409</v>
       </c>
       <c r="F4">
-        <v>0.04908534210622358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0167691656344003</v>
+      </c>
+      <c r="G4">
+        <v>-0.04097908640012455</v>
+      </c>
+      <c r="H4">
+        <v>0.0226837466806801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0619957810850888</v>
+        <v>0.02948839627422283</v>
       </c>
       <c r="C6">
-        <v>0.00374874641460733</v>
+        <v>0.05696729913168285</v>
       </c>
       <c r="D6">
-        <v>-0.04050971813818133</v>
+        <v>-0.01528254458804263</v>
       </c>
       <c r="E6">
-        <v>-0.01643141050416771</v>
+        <v>0.001276470585439747</v>
       </c>
       <c r="F6">
-        <v>0.0315326843932972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01448775935936229</v>
+      </c>
+      <c r="G6">
+        <v>-0.01952894083043996</v>
+      </c>
+      <c r="H6">
+        <v>0.005059589186350626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02711484632439956</v>
+        <v>0.01203157724287362</v>
       </c>
       <c r="C7">
-        <v>0.07000574656677647</v>
+        <v>0.03147590532449805</v>
       </c>
       <c r="D7">
-        <v>-0.001650592666298672</v>
+        <v>-0.01232734830681904</v>
       </c>
       <c r="E7">
-        <v>-0.009348946381518286</v>
+        <v>0.01591984885480268</v>
       </c>
       <c r="F7">
-        <v>0.01085584043530808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01459637302164011</v>
+      </c>
+      <c r="G7">
+        <v>-0.07218247633989072</v>
+      </c>
+      <c r="H7">
+        <v>-0.02208714361477002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01735831273399</v>
+        <v>-0.004232019627346233</v>
       </c>
       <c r="C8">
-        <v>0.01051835333514369</v>
+        <v>0.005300388094059691</v>
       </c>
       <c r="D8">
-        <v>-0.02319395642723236</v>
+        <v>-0.001927086974109575</v>
       </c>
       <c r="E8">
-        <v>-0.02096332255928712</v>
+        <v>-0.006639733363081768</v>
       </c>
       <c r="F8">
-        <v>0.04764607912208696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01947682204123637</v>
+      </c>
+      <c r="G8">
+        <v>-0.02441134452472679</v>
+      </c>
+      <c r="H8">
+        <v>0.01628109662485739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02690839069239385</v>
+        <v>0.0244816470833977</v>
       </c>
       <c r="C9">
-        <v>0.01269787777599523</v>
+        <v>0.03994029522713647</v>
       </c>
       <c r="D9">
-        <v>-0.02530417630415267</v>
+        <v>-0.01477214804423324</v>
       </c>
       <c r="E9">
-        <v>-0.04583685002034071</v>
+        <v>0.001237084983016244</v>
       </c>
       <c r="F9">
-        <v>0.03853303816270286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02141643579959152</v>
+      </c>
+      <c r="G9">
+        <v>-0.02927544406817829</v>
+      </c>
+      <c r="H9">
+        <v>-0.005523474617586255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05131283401140495</v>
+        <v>0.09825042742786011</v>
       </c>
       <c r="C10">
-        <v>-0.01491655859750767</v>
+        <v>-0.1782741600605426</v>
       </c>
       <c r="D10">
-        <v>0.1664954541121079</v>
+        <v>0.02144974393192428</v>
       </c>
       <c r="E10">
-        <v>-0.04267463352485237</v>
+        <v>-0.0201123971321361</v>
       </c>
       <c r="F10">
-        <v>-0.009226424082824253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.009993308279482154</v>
+      </c>
+      <c r="G10">
+        <v>-0.02858967290556093</v>
+      </c>
+      <c r="H10">
+        <v>-0.0352045956871329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02809295684257258</v>
+        <v>0.03129467037908393</v>
       </c>
       <c r="C11">
-        <v>-0.002707846522755524</v>
+        <v>0.05343190566845561</v>
       </c>
       <c r="D11">
-        <v>-0.04166709857331199</v>
+        <v>-0.000418072759156489</v>
       </c>
       <c r="E11">
-        <v>-0.006063608385302787</v>
+        <v>0.008122790843240042</v>
       </c>
       <c r="F11">
-        <v>0.01891779443782252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02783875241019416</v>
+      </c>
+      <c r="G11">
+        <v>-0.009093343311853134</v>
+      </c>
+      <c r="H11">
+        <v>0.001957330158882232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03598655842757724</v>
+        <v>0.03155741775102197</v>
       </c>
       <c r="C12">
-        <v>0.003439405918175126</v>
+        <v>0.04707114611329888</v>
       </c>
       <c r="D12">
-        <v>-0.03937992870615366</v>
+        <v>-0.004716753470745034</v>
       </c>
       <c r="E12">
-        <v>0.01202118560243373</v>
+        <v>0.01366115760460751</v>
       </c>
       <c r="F12">
-        <v>0.005309706640493065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.007199999838931251</v>
+      </c>
+      <c r="G12">
+        <v>-0.01589712918537957</v>
+      </c>
+      <c r="H12">
+        <v>0.000557809603361535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01575685715181323</v>
+        <v>0.01003995619504523</v>
       </c>
       <c r="C13">
-        <v>-0.001751142202714246</v>
+        <v>0.02790797209607253</v>
       </c>
       <c r="D13">
-        <v>-0.01504814024231664</v>
+        <v>-0.02338806636922457</v>
       </c>
       <c r="E13">
-        <v>-0.03851382345674382</v>
+        <v>-0.01497359286839065</v>
       </c>
       <c r="F13">
-        <v>0.04734628783914938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03501658287720606</v>
+      </c>
+      <c r="G13">
+        <v>-0.02350401831371974</v>
+      </c>
+      <c r="H13">
+        <v>0.008110142792241469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.014193753639166</v>
+        <v>0.004854924537436843</v>
       </c>
       <c r="C14">
-        <v>0.01441163910805521</v>
+        <v>0.02113902509140155</v>
       </c>
       <c r="D14">
-        <v>-0.009012299040173614</v>
+        <v>-0.007908836527364524</v>
       </c>
       <c r="E14">
-        <v>-0.01472104291785417</v>
+        <v>0.006587259753240498</v>
       </c>
       <c r="F14">
-        <v>0.04668764006292937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.006885856831105488</v>
+      </c>
+      <c r="G14">
+        <v>-0.03394177474498355</v>
+      </c>
+      <c r="H14">
+        <v>0.007921095795816081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02629822773158526</v>
+        <v>0.02727942918332335</v>
       </c>
       <c r="C16">
-        <v>0.003319273823238043</v>
+        <v>0.04093831061861478</v>
       </c>
       <c r="D16">
-        <v>-0.04165477083046377</v>
+        <v>-9.051460699079501e-05</v>
       </c>
       <c r="E16">
-        <v>-0.007861066560913434</v>
+        <v>0.005389310521215135</v>
       </c>
       <c r="F16">
-        <v>0.02123740329030233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01550101549849671</v>
+      </c>
+      <c r="G16">
+        <v>-0.01381605319449425</v>
+      </c>
+      <c r="H16">
+        <v>0.003277243486476442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02804355871489342</v>
+        <v>0.02410393764632184</v>
       </c>
       <c r="C19">
-        <v>0.001051448286329155</v>
+        <v>0.04851625669583786</v>
       </c>
       <c r="D19">
-        <v>-0.0336327789365763</v>
+        <v>-0.01380859682188654</v>
       </c>
       <c r="E19">
-        <v>-0.0380018827528977</v>
+        <v>-0.02876552231356892</v>
       </c>
       <c r="F19">
-        <v>0.08053461581729096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04902394919713084</v>
+      </c>
+      <c r="G19">
+        <v>-0.0367220827161503</v>
+      </c>
+      <c r="H19">
+        <v>0.01874176001526769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001527785043269402</v>
+        <v>0.007366081485439015</v>
       </c>
       <c r="C20">
-        <v>0.003837216834565297</v>
+        <v>0.0276225458298059</v>
       </c>
       <c r="D20">
-        <v>-0.001393332744814433</v>
+        <v>-0.01204119811445207</v>
       </c>
       <c r="E20">
-        <v>-0.02824476555135641</v>
+        <v>-0.01568524570675394</v>
       </c>
       <c r="F20">
-        <v>0.02924776515250061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01392082885635379</v>
+      </c>
+      <c r="G20">
+        <v>-0.02377912986968463</v>
+      </c>
+      <c r="H20">
+        <v>0.006150730160984407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03665296650121509</v>
+        <v>0.007825365975702091</v>
       </c>
       <c r="C21">
-        <v>0.02086060711773025</v>
+        <v>0.02873660378575226</v>
       </c>
       <c r="D21">
-        <v>-0.01500933733237438</v>
+        <v>-0.0152756153289261</v>
       </c>
       <c r="E21">
-        <v>-0.0180233287741388</v>
+        <v>-0.02144585983383594</v>
       </c>
       <c r="F21">
-        <v>0.03564126526001319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02991516907718552</v>
+      </c>
+      <c r="G21">
+        <v>-0.04507043134863983</v>
+      </c>
+      <c r="H21">
+        <v>-0.001974325911497616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02439919149327525</v>
+        <v>0.02265183264497159</v>
       </c>
       <c r="C24">
-        <v>0.0009188377832128026</v>
+        <v>0.04400483033444349</v>
       </c>
       <c r="D24">
-        <v>-0.03230001364165851</v>
+        <v>-0.005219669908735711</v>
       </c>
       <c r="E24">
-        <v>-0.005865407874514427</v>
+        <v>0.01077075677649972</v>
       </c>
       <c r="F24">
-        <v>0.01687581058324911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02269382645996877</v>
+      </c>
+      <c r="G24">
+        <v>-0.01045434483564699</v>
+      </c>
+      <c r="H24">
+        <v>-0.003561321220682347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03717185718431802</v>
+        <v>0.03933878796709943</v>
       </c>
       <c r="C25">
-        <v>-0.0007271390113194894</v>
+        <v>0.0527413721712101</v>
       </c>
       <c r="D25">
-        <v>-0.03184748048304939</v>
+        <v>-0.009166348095710946</v>
       </c>
       <c r="E25">
-        <v>-0.02004318346157481</v>
+        <v>0.01740580688982464</v>
       </c>
       <c r="F25">
-        <v>0.02567576420838621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01902828391945708</v>
+      </c>
+      <c r="G25">
+        <v>-0.01864411788657864</v>
+      </c>
+      <c r="H25">
+        <v>0.004543274267677393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.002698825639403179</v>
+        <v>0.002384317998870384</v>
       </c>
       <c r="C26">
-        <v>0.009834494233230417</v>
+        <v>0.003744012616676636</v>
       </c>
       <c r="D26">
-        <v>-0.007042154047223839</v>
+        <v>-0.02317878948888879</v>
       </c>
       <c r="E26">
-        <v>-0.03304929937435667</v>
+        <v>-0.001819249854546527</v>
       </c>
       <c r="F26">
-        <v>0.01492393071488475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006459158609201319</v>
+      </c>
+      <c r="G26">
+        <v>-0.02034918038871946</v>
+      </c>
+      <c r="H26">
+        <v>0.001811236374746298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0001851939373857758</v>
+        <v>0.0003205261531522987</v>
       </c>
       <c r="C27">
-        <v>0.0007638869723854668</v>
+        <v>-0.0008172712817859672</v>
       </c>
       <c r="D27">
-        <v>0.004195981796694295</v>
+        <v>0.000488667192445217</v>
       </c>
       <c r="E27">
-        <v>0.005077994224436844</v>
+        <v>2.243471583183592e-05</v>
       </c>
       <c r="F27">
-        <v>0.01391550169243568</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0002970692943295286</v>
+      </c>
+      <c r="G27">
+        <v>-0.003086352703737041</v>
+      </c>
+      <c r="H27">
+        <v>0.006360301471977881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08469296027322115</v>
+        <v>0.1304226385725001</v>
       </c>
       <c r="C28">
-        <v>-0.02322669825154612</v>
+        <v>-0.2163064691796452</v>
       </c>
       <c r="D28">
-        <v>0.2399877464705606</v>
+        <v>0.01372605122525123</v>
       </c>
       <c r="E28">
-        <v>-0.05316936921423211</v>
+        <v>-0.01351285264432505</v>
       </c>
       <c r="F28">
-        <v>-0.02278021803357479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.009002387699684096</v>
+      </c>
+      <c r="G28">
+        <v>-0.04357050304866064</v>
+      </c>
+      <c r="H28">
+        <v>-0.0351331895217103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01409006431414054</v>
+        <v>0.009423849354912934</v>
       </c>
       <c r="C29">
-        <v>0.01095397247699814</v>
+        <v>0.0172663960738097</v>
       </c>
       <c r="D29">
-        <v>-0.008931380508748173</v>
+        <v>-0.006745035908592768</v>
       </c>
       <c r="E29">
-        <v>-0.0122796621534092</v>
+        <v>0.005402798961848282</v>
       </c>
       <c r="F29">
-        <v>0.05024214704265316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.001686568249050063</v>
+      </c>
+      <c r="G29">
+        <v>-0.02904086619331979</v>
+      </c>
+      <c r="H29">
+        <v>0.01442714575063469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04020736254348308</v>
+        <v>0.03315892975714295</v>
       </c>
       <c r="C30">
-        <v>-0.04738955100876807</v>
+        <v>0.07559326507555154</v>
       </c>
       <c r="D30">
-        <v>-0.06293970077311677</v>
+        <v>-0.02659728484867001</v>
       </c>
       <c r="E30">
-        <v>-0.05076207358323764</v>
+        <v>-0.01652513892948522</v>
       </c>
       <c r="F30">
-        <v>0.06747517107804817</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0477534666047952</v>
+      </c>
+      <c r="G30">
+        <v>0.007796334757268559</v>
+      </c>
+      <c r="H30">
+        <v>0.0250633879843843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04821968055678318</v>
+        <v>0.03869579697185995</v>
       </c>
       <c r="C31">
-        <v>0.01064544792904171</v>
+        <v>0.02174899894889128</v>
       </c>
       <c r="D31">
-        <v>-0.0158643093219775</v>
+        <v>-0.00146935765724684</v>
       </c>
       <c r="E31">
-        <v>0.002995592263895423</v>
+        <v>0.01534886766402875</v>
       </c>
       <c r="F31">
-        <v>0.03180308497783674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02519732032099337</v>
+      </c>
+      <c r="G31">
+        <v>-0.02362133295284552</v>
+      </c>
+      <c r="H31">
+        <v>0.001676484056082037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-1.034591503170074e-05</v>
+        <v>0.0004294189694442604</v>
       </c>
       <c r="C32">
-        <v>0.02930024283640138</v>
+        <v>0.02767391170561509</v>
       </c>
       <c r="D32">
-        <v>-0.02763557065112117</v>
+        <v>0.005639521336977279</v>
       </c>
       <c r="E32">
-        <v>-0.003447780585450611</v>
+        <v>-0.01161550744778497</v>
       </c>
       <c r="F32">
-        <v>0.06375819573052828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08535556501456529</v>
+      </c>
+      <c r="G32">
+        <v>-0.05022289422075277</v>
+      </c>
+      <c r="H32">
+        <v>0.03184748004413272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0305713036398136</v>
+        <v>0.02490506578497331</v>
       </c>
       <c r="C33">
-        <v>-0.02027020665499794</v>
+        <v>0.04917898560195302</v>
       </c>
       <c r="D33">
-        <v>-0.03263719836832656</v>
+        <v>-0.01315238343130357</v>
       </c>
       <c r="E33">
-        <v>-0.04269964069209999</v>
+        <v>-0.0126651905823549</v>
       </c>
       <c r="F33">
-        <v>0.03207605934358029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02614940324825819</v>
+      </c>
+      <c r="G33">
+        <v>-0.01209344296716706</v>
+      </c>
+      <c r="H33">
+        <v>-0.01043020138672337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02696433746016219</v>
+        <v>0.04066636710443067</v>
       </c>
       <c r="C34">
-        <v>0.01114698048176803</v>
+        <v>0.05501216525358339</v>
       </c>
       <c r="D34">
-        <v>-0.04212622476920053</v>
+        <v>0.006922168857168163</v>
       </c>
       <c r="E34">
-        <v>-0.006326353005717366</v>
+        <v>0.01838333647319276</v>
       </c>
       <c r="F34">
-        <v>0.02555096304772001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02394075159462864</v>
+      </c>
+      <c r="G34">
+        <v>-0.02288386704440187</v>
+      </c>
+      <c r="H34">
+        <v>0.0009630312475342203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0113351826621674</v>
+        <v>0.01001017848118671</v>
       </c>
       <c r="C36">
-        <v>0.005350031970459076</v>
+        <v>0.0005325810768181322</v>
       </c>
       <c r="D36">
-        <v>0.000194405483973699</v>
+        <v>-0.01006577869048833</v>
       </c>
       <c r="E36">
-        <v>-0.01101105372467642</v>
+        <v>0.001993823980470351</v>
       </c>
       <c r="F36">
-        <v>0.0231094175001142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002316878585894972</v>
+      </c>
+      <c r="G36">
+        <v>-0.0149477283526308</v>
+      </c>
+      <c r="H36">
+        <v>-0.001458890715570452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01957745909157618</v>
+        <v>0.02678802352076727</v>
       </c>
       <c r="C38">
-        <v>-0.003733249032433601</v>
+        <v>0.01882748650086229</v>
       </c>
       <c r="D38">
-        <v>-0.007583202600808516</v>
+        <v>0.008702212491207945</v>
       </c>
       <c r="E38">
-        <v>-0.04161343710399941</v>
+        <v>0.003820015412332958</v>
       </c>
       <c r="F38">
-        <v>0.03655563629169854</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009572744511102915</v>
+      </c>
+      <c r="G38">
+        <v>-0.01957778288568486</v>
+      </c>
+      <c r="H38">
+        <v>0.001868230194510007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01906304745352813</v>
+        <v>0.02185444929094525</v>
       </c>
       <c r="C39">
-        <v>0.009462481447348989</v>
+        <v>0.08349984313289828</v>
       </c>
       <c r="D39">
-        <v>-0.06578295848163399</v>
+        <v>-0.0112111198488562</v>
       </c>
       <c r="E39">
-        <v>-0.02805057606150783</v>
+        <v>-0.002223836806873633</v>
       </c>
       <c r="F39">
-        <v>0.04802586642701869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04538607109324409</v>
+      </c>
+      <c r="G39">
+        <v>-0.01267159316483682</v>
+      </c>
+      <c r="H39">
+        <v>-0.004200445826332677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02653046411646737</v>
+        <v>0.01777428306323216</v>
       </c>
       <c r="C40">
-        <v>-0.0007489616974619986</v>
+        <v>0.0262927741588032</v>
       </c>
       <c r="D40">
-        <v>-0.0421672317729526</v>
+        <v>-0.0118144110183305</v>
       </c>
       <c r="E40">
-        <v>-0.023626087701722</v>
+        <v>-0.006595662000472733</v>
       </c>
       <c r="F40">
-        <v>0.009029042404956755</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02829970798756221</v>
+      </c>
+      <c r="G40">
+        <v>-0.01207349499566357</v>
+      </c>
+      <c r="H40">
+        <v>-0.008745854983821145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009554063696686519</v>
+        <v>0.01135678670757862</v>
       </c>
       <c r="C41">
-        <v>-0.001606880720113989</v>
+        <v>-0.007478409792350009</v>
       </c>
       <c r="D41">
-        <v>0.01097981077849153</v>
+        <v>-0.002420323648194125</v>
       </c>
       <c r="E41">
-        <v>-0.009315395819400668</v>
+        <v>0.007849794558543422</v>
       </c>
       <c r="F41">
-        <v>0.005400867804465023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.001336911139202685</v>
+      </c>
+      <c r="G41">
+        <v>-0.007297691034861788</v>
+      </c>
+      <c r="H41">
+        <v>-0.002557294522874413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2048278512890017</v>
+        <v>0.04409343204293555</v>
       </c>
       <c r="C42">
-        <v>-0.1473983367967942</v>
+        <v>0.08642622470813821</v>
       </c>
       <c r="D42">
-        <v>-0.1695591451570017</v>
+        <v>-0.1150672173834777</v>
       </c>
       <c r="E42">
-        <v>-0.411178757551999</v>
+        <v>-0.09538075838630269</v>
       </c>
       <c r="F42">
-        <v>-0.8009465945473448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2053432877708811</v>
+      </c>
+      <c r="G42">
+        <v>0.3871772598652553</v>
+      </c>
+      <c r="H42">
+        <v>-0.8604958311946405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01444594224769538</v>
+        <v>0.02505755676540221</v>
       </c>
       <c r="C43">
-        <v>-0.004442161678267848</v>
+        <v>0.0009011151515415299</v>
       </c>
       <c r="D43">
-        <v>0.01027331102866082</v>
+        <v>-0.002106982168368766</v>
       </c>
       <c r="E43">
-        <v>-0.01331934852977385</v>
+        <v>0.005487134959281158</v>
       </c>
       <c r="F43">
-        <v>0.01276792074182015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.006464999130415104</v>
+      </c>
+      <c r="G43">
+        <v>-0.009279309385229582</v>
+      </c>
+      <c r="H43">
+        <v>-0.002056845598361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.006970614337379986</v>
+        <v>0.01175231447251441</v>
       </c>
       <c r="C44">
-        <v>0.01187163817202604</v>
+        <v>0.04750263423769172</v>
       </c>
       <c r="D44">
-        <v>-0.01696335447033278</v>
+        <v>-0.006308484372221634</v>
       </c>
       <c r="E44">
-        <v>-0.05793018261025387</v>
+        <v>-0.0122973145351421</v>
       </c>
       <c r="F44">
-        <v>0.0502059259198036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02947307451029461</v>
+      </c>
+      <c r="G44">
+        <v>-0.02751909487250308</v>
+      </c>
+      <c r="H44">
+        <v>-0.01594031547332756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01285672405834005</v>
+        <v>0.0005049978449311308</v>
       </c>
       <c r="C46">
-        <v>0.003264026447651905</v>
+        <v>0.01313868337620495</v>
       </c>
       <c r="D46">
-        <v>-0.03623281578464971</v>
+        <v>-0.01098017714884783</v>
       </c>
       <c r="E46">
-        <v>-0.02905311093345772</v>
+        <v>0.006518750322816296</v>
       </c>
       <c r="F46">
-        <v>0.07122943107373833</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.005432072369917228</v>
+      </c>
+      <c r="G46">
+        <v>-0.02093412377053347</v>
+      </c>
+      <c r="H46">
+        <v>0.01490512376137112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07398309061428943</v>
+        <v>0.06472439291305832</v>
       </c>
       <c r="C47">
-        <v>-0.005798985905918362</v>
+        <v>0.05474893686154786</v>
       </c>
       <c r="D47">
-        <v>-0.0197940832113619</v>
+        <v>0.006227656210649027</v>
       </c>
       <c r="E47">
-        <v>0.03055490826105087</v>
+        <v>0.01759120253828614</v>
       </c>
       <c r="F47">
-        <v>0.007563682638909861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05722722827018677</v>
+      </c>
+      <c r="G47">
+        <v>-0.01716958573547366</v>
+      </c>
+      <c r="H47">
+        <v>0.007935706119115963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02162945038910831</v>
+        <v>0.01351548120612945</v>
       </c>
       <c r="C48">
-        <v>0.003886887840821937</v>
+        <v>0.00703857756781874</v>
       </c>
       <c r="D48">
-        <v>-0.006460672890374029</v>
+        <v>-0.0001898580471211896</v>
       </c>
       <c r="E48">
-        <v>-0.01253776171700335</v>
+        <v>0.007507603500502397</v>
       </c>
       <c r="F48">
-        <v>0.02115069945335949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01300484825481163</v>
+      </c>
+      <c r="G48">
+        <v>-0.01707751025321179</v>
+      </c>
+      <c r="H48">
+        <v>0.001508985118922392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08048653359515735</v>
+        <v>0.06911475785292387</v>
       </c>
       <c r="C50">
-        <v>0.02286480874146148</v>
+        <v>0.05551410366786774</v>
       </c>
       <c r="D50">
-        <v>-0.04061104175153677</v>
+        <v>0.004942610708693108</v>
       </c>
       <c r="E50">
-        <v>-0.0003337225383892262</v>
+        <v>0.01559184947203701</v>
       </c>
       <c r="F50">
-        <v>0.02356229649437044</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.04846568898118676</v>
+      </c>
+      <c r="G50">
+        <v>-0.04339516975726624</v>
+      </c>
+      <c r="H50">
+        <v>-0.003375384686534006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009642576512677506</v>
+        <v>0.0116741743673478</v>
       </c>
       <c r="C51">
-        <v>0.006725927139364979</v>
+        <v>0.02331742452112225</v>
       </c>
       <c r="D51">
-        <v>0.01648137028974727</v>
+        <v>-0.008142403271508751</v>
       </c>
       <c r="E51">
-        <v>-0.05651300902994504</v>
+        <v>-0.001197101175197155</v>
       </c>
       <c r="F51">
-        <v>0.05439923565909329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03891605804901251</v>
+      </c>
+      <c r="G51">
+        <v>-0.03236672657152268</v>
+      </c>
+      <c r="H51">
+        <v>-0.01019708336664295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1057216625054838</v>
+        <v>0.08905491832529067</v>
       </c>
       <c r="C53">
-        <v>0.005602241163250712</v>
+        <v>0.07961043355851299</v>
       </c>
       <c r="D53">
-        <v>-0.04893429253454099</v>
+        <v>0.006591600482114189</v>
       </c>
       <c r="E53">
-        <v>0.05409626482036114</v>
+        <v>0.04074790841509046</v>
       </c>
       <c r="F53">
-        <v>0.004869768945339819</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06549828813658244</v>
+      </c>
+      <c r="G53">
+        <v>-0.01825274351736107</v>
+      </c>
+      <c r="H53">
+        <v>-0.0008155208322938083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02530270813548557</v>
+        <v>0.02690013022108071</v>
       </c>
       <c r="C54">
-        <v>0.007527789903831273</v>
+        <v>8.274070867573597e-05</v>
       </c>
       <c r="D54">
-        <v>-0.000413851842764911</v>
+        <v>0.005506433010652094</v>
       </c>
       <c r="E54">
-        <v>0.004172258037123014</v>
+        <v>0.001219156354860854</v>
       </c>
       <c r="F54">
-        <v>0.03994487850893556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0006689754930530746</v>
+      </c>
+      <c r="G54">
+        <v>-0.0267610604565023</v>
+      </c>
+      <c r="H54">
+        <v>0.009788712177893821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07862569082184039</v>
+        <v>0.06626533862292881</v>
       </c>
       <c r="C55">
-        <v>4.975648334417407e-05</v>
+        <v>0.06949974453726887</v>
       </c>
       <c r="D55">
-        <v>-0.06295690093326479</v>
+        <v>0.005660349150790445</v>
       </c>
       <c r="E55">
-        <v>0.03412276553474632</v>
+        <v>0.03150852908246911</v>
       </c>
       <c r="F55">
-        <v>0.002908154506533138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06347836074858104</v>
+      </c>
+      <c r="G55">
+        <v>-0.008539552584197885</v>
+      </c>
+      <c r="H55">
+        <v>0.007557255604288787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1461813182222217</v>
+        <v>0.1328593165908267</v>
       </c>
       <c r="C56">
-        <v>-0.004032164416240143</v>
+        <v>0.1071903171927343</v>
       </c>
       <c r="D56">
-        <v>-0.06966747124768188</v>
+        <v>0.01489085785459802</v>
       </c>
       <c r="E56">
-        <v>0.08331726482915262</v>
+        <v>0.04092127853273918</v>
       </c>
       <c r="F56">
-        <v>-0.01818895794912468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1028283634309368</v>
+      </c>
+      <c r="G56">
+        <v>0.002737879348553742</v>
+      </c>
+      <c r="H56">
+        <v>0.01245866420169507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03461457889787841</v>
+        <v>0.01459901148491444</v>
       </c>
       <c r="C57">
-        <v>-0.009096129584643611</v>
+        <v>0.01412365562059705</v>
       </c>
       <c r="D57">
-        <v>-0.01450769011495884</v>
+        <v>-0.02387874181074185</v>
       </c>
       <c r="E57">
-        <v>-0.05218453180653266</v>
+        <v>-0.03231189035019682</v>
       </c>
       <c r="F57">
-        <v>0.01682346580796136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02223964360091615</v>
+      </c>
+      <c r="G57">
+        <v>-0.02368304510949047</v>
+      </c>
+      <c r="H57">
+        <v>-0.005212323114097714</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1787617998279114</v>
+        <v>0.06785639468911726</v>
       </c>
       <c r="C58">
-        <v>-0.1314074975180951</v>
+        <v>0.09876056716392474</v>
       </c>
       <c r="D58">
-        <v>-0.1596320712443833</v>
+        <v>-0.02182891382822885</v>
       </c>
       <c r="E58">
-        <v>-0.5654891122646886</v>
+        <v>-0.9519229150202958</v>
       </c>
       <c r="F58">
-        <v>0.3959896807258866</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.170334886991685</v>
+      </c>
+      <c r="G58">
+        <v>-0.09254247464877149</v>
+      </c>
+      <c r="H58">
+        <v>0.1136383174120345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08500361530107857</v>
+        <v>0.1656462025194925</v>
       </c>
       <c r="C59">
-        <v>-0.04256884243424971</v>
+        <v>-0.2055315183692011</v>
       </c>
       <c r="D59">
-        <v>0.1998633566845566</v>
+        <v>0.02143092276193711</v>
       </c>
       <c r="E59">
-        <v>-0.05799139753033487</v>
+        <v>-0.01708289006324968</v>
       </c>
       <c r="F59">
-        <v>0.02024354358931419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01500836711825313</v>
+      </c>
+      <c r="G59">
+        <v>-0.02059443579761815</v>
+      </c>
+      <c r="H59">
+        <v>-0.009573467483049845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1943182678889534</v>
+        <v>0.2943431356027271</v>
       </c>
       <c r="C60">
-        <v>-0.04796058294796405</v>
+        <v>0.09635378176355933</v>
       </c>
       <c r="D60">
-        <v>0.0254789112990091</v>
+        <v>-0.0005907023011923315</v>
       </c>
       <c r="E60">
-        <v>-0.1215039290253937</v>
+        <v>0.003424454791024681</v>
       </c>
       <c r="F60">
-        <v>0.03614884980853982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3821844424701064</v>
+      </c>
+      <c r="G60">
+        <v>0.05805402648499097</v>
+      </c>
+      <c r="H60">
+        <v>-0.003261713899750815</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02990905477895097</v>
+        <v>0.02564226961950839</v>
       </c>
       <c r="C61">
-        <v>0.003639603857522647</v>
+        <v>0.06437849747564586</v>
       </c>
       <c r="D61">
-        <v>-0.05137797364363618</v>
+        <v>-0.0043099576340586</v>
       </c>
       <c r="E61">
-        <v>-0.01342094308313569</v>
+        <v>0.001755299708517466</v>
       </c>
       <c r="F61">
-        <v>0.02902338211691319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03357992319426658</v>
+      </c>
+      <c r="G61">
+        <v>-0.01570024320328825</v>
+      </c>
+      <c r="H61">
+        <v>0.003581675842127341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01505283202332545</v>
+        <v>0.01201527121076201</v>
       </c>
       <c r="C63">
-        <v>0.007090173285452275</v>
+        <v>0.02992133605763127</v>
       </c>
       <c r="D63">
-        <v>-0.02343536459340931</v>
+        <v>-0.007220638639561973</v>
       </c>
       <c r="E63">
-        <v>-0.00041210038524953</v>
+        <v>0.01611535089565788</v>
       </c>
       <c r="F63">
-        <v>0.01921142492168288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.004216954549399043</v>
+      </c>
+      <c r="G63">
+        <v>-0.02284243809639104</v>
+      </c>
+      <c r="H63">
+        <v>0.009742565129714328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04763404616512128</v>
+        <v>0.04480350286359689</v>
       </c>
       <c r="C64">
-        <v>0.001127436380203899</v>
+        <v>0.03876574335844557</v>
       </c>
       <c r="D64">
-        <v>-0.0307216832547012</v>
+        <v>-0.003247863114253681</v>
       </c>
       <c r="E64">
-        <v>-0.008141780111156866</v>
+        <v>0.01881438254118057</v>
       </c>
       <c r="F64">
-        <v>0.02500079762191844</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01331334550961129</v>
+      </c>
+      <c r="G64">
+        <v>-0.008393930201143106</v>
+      </c>
+      <c r="H64">
+        <v>-0.01924927725761736</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06903798026270282</v>
+        <v>0.0763225888370208</v>
       </c>
       <c r="C65">
-        <v>0.003796980768818856</v>
+        <v>0.07927751031449534</v>
       </c>
       <c r="D65">
-        <v>-0.0430063598721471</v>
+        <v>-0.0139363657894034</v>
       </c>
       <c r="E65">
-        <v>-0.01069780462790005</v>
+        <v>0.008531242210563507</v>
       </c>
       <c r="F65">
-        <v>0.02910036816444125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03725958227532999</v>
+      </c>
+      <c r="G65">
+        <v>-0.01197622671007116</v>
+      </c>
+      <c r="H65">
+        <v>0.01535657794598716</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04339965167517625</v>
+        <v>0.04152698197372974</v>
       </c>
       <c r="C66">
-        <v>-0.008633155879911541</v>
+        <v>0.1219618537016569</v>
       </c>
       <c r="D66">
-        <v>-0.07537644612022738</v>
+        <v>-0.01029200195748553</v>
       </c>
       <c r="E66">
-        <v>-0.0001407381270790949</v>
+        <v>-0.002678645489790962</v>
       </c>
       <c r="F66">
-        <v>0.07140189195982473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0557686909264825</v>
+      </c>
+      <c r="G66">
+        <v>-0.008389792348941426</v>
+      </c>
+      <c r="H66">
+        <v>0.02217249731242314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03580569525993168</v>
+        <v>0.05176715018286397</v>
       </c>
       <c r="C67">
-        <v>-0.008003254037659984</v>
+        <v>0.02514222311189561</v>
       </c>
       <c r="D67">
-        <v>-0.001211943164715701</v>
+        <v>0.00750126877881066</v>
       </c>
       <c r="E67">
-        <v>-0.02112641827104582</v>
+        <v>0.008783964587320774</v>
       </c>
       <c r="F67">
-        <v>0.02904521559072257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.008490517088001805</v>
+      </c>
+      <c r="G67">
+        <v>-0.0198470174031531</v>
+      </c>
+      <c r="H67">
+        <v>0.007662250500502992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0795888390135096</v>
+        <v>0.1469986756651109</v>
       </c>
       <c r="C68">
-        <v>-0.04149752587782532</v>
+        <v>-0.2494747731270711</v>
       </c>
       <c r="D68">
-        <v>0.2213041585503507</v>
+        <v>0.002828552202492255</v>
       </c>
       <c r="E68">
-        <v>-0.03341142522254489</v>
+        <v>-0.01975031064514188</v>
       </c>
       <c r="F68">
-        <v>-0.008052236253588823</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01816211390198126</v>
+      </c>
+      <c r="G68">
+        <v>-0.01486663091204073</v>
+      </c>
+      <c r="H68">
+        <v>-0.02432440335508519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05634278650067159</v>
+        <v>0.06755769401921748</v>
       </c>
       <c r="C69">
-        <v>-0.004367096237423854</v>
+        <v>0.05242702058940616</v>
       </c>
       <c r="D69">
-        <v>-0.03049339641382427</v>
+        <v>0.01088326356366823</v>
       </c>
       <c r="E69">
-        <v>0.02372012514614798</v>
+        <v>0.03286611748508325</v>
       </c>
       <c r="F69">
-        <v>0.02298846343770642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03113519380475543</v>
+      </c>
+      <c r="G69">
+        <v>-0.01426211610021027</v>
+      </c>
+      <c r="H69">
+        <v>0.0161518262990382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07213636084341825</v>
+        <v>0.1411291471611419</v>
       </c>
       <c r="C71">
-        <v>-0.02772876619510496</v>
+        <v>-0.2106046336923179</v>
       </c>
       <c r="D71">
-        <v>0.2184318830242007</v>
+        <v>0.01054244305625472</v>
       </c>
       <c r="E71">
-        <v>-0.06255000452019524</v>
+        <v>-0.02632917637214184</v>
       </c>
       <c r="F71">
-        <v>-0.04120801106965894</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02617977598401267</v>
+      </c>
+      <c r="G71">
+        <v>-0.02630853276289238</v>
+      </c>
+      <c r="H71">
+        <v>-0.0412577338732169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1231230625953987</v>
+        <v>0.07798974717039545</v>
       </c>
       <c r="C72">
-        <v>-0.003929122664714126</v>
+        <v>0.0874210912003274</v>
       </c>
       <c r="D72">
-        <v>-0.1091751308070036</v>
+        <v>0.01107433261819169</v>
       </c>
       <c r="E72">
-        <v>-0.02918265577282259</v>
+        <v>0.02181400007551465</v>
       </c>
       <c r="F72">
-        <v>0.1302865638268045</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03997853081567389</v>
+      </c>
+      <c r="G72">
+        <v>-0.001516321735781017</v>
+      </c>
+      <c r="H72">
+        <v>0.03003387833343013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2382129090292863</v>
+        <v>0.3877003243143698</v>
       </c>
       <c r="C73">
-        <v>-0.1075178789759758</v>
+        <v>0.1420136384495442</v>
       </c>
       <c r="D73">
-        <v>-0.0006270597954808148</v>
+        <v>-0.007412074735812027</v>
       </c>
       <c r="E73">
-        <v>-0.1882063387455436</v>
+        <v>-0.05076449515640549</v>
       </c>
       <c r="F73">
-        <v>0.0216528695932484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.532858141072732</v>
+      </c>
+      <c r="G73">
+        <v>0.1038043499857766</v>
+      </c>
+      <c r="H73">
+        <v>-0.0672995630486502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1361663646029423</v>
+        <v>0.1071142232542061</v>
       </c>
       <c r="C74">
-        <v>-0.01082489582398002</v>
+        <v>0.1156989505926897</v>
       </c>
       <c r="D74">
-        <v>-0.06893243896183278</v>
+        <v>0.0116203422675416</v>
       </c>
       <c r="E74">
-        <v>0.08357233005737306</v>
+        <v>0.04017775330836434</v>
       </c>
       <c r="F74">
-        <v>-0.00285025617505918</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07391452349768024</v>
+      </c>
+      <c r="G74">
+        <v>-0.0122127509060885</v>
+      </c>
+      <c r="H74">
+        <v>0.003974418023332754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2728521571028133</v>
+        <v>0.2432885957331939</v>
       </c>
       <c r="C75">
-        <v>-0.03060590498298914</v>
+        <v>0.1699649259251646</v>
       </c>
       <c r="D75">
-        <v>-0.1001039225380736</v>
+        <v>0.03155772318214835</v>
       </c>
       <c r="E75">
-        <v>0.1584010721602998</v>
+        <v>0.05830038727979559</v>
       </c>
       <c r="F75">
-        <v>0.01673319374578913</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2185850745795143</v>
+      </c>
+      <c r="G75">
+        <v>0.01873044573959494</v>
+      </c>
+      <c r="H75">
+        <v>0.04256050775264561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2704413989716313</v>
+        <v>0.1486586875861612</v>
       </c>
       <c r="C76">
-        <v>-0.01013996681605398</v>
+        <v>0.1382421249071639</v>
       </c>
       <c r="D76">
-        <v>-0.111366385494274</v>
+        <v>0.02479449220597653</v>
       </c>
       <c r="E76">
-        <v>0.2150270369148351</v>
+        <v>0.06843189401394052</v>
       </c>
       <c r="F76">
-        <v>-0.02244441301137981</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1620836058896239</v>
+      </c>
+      <c r="G76">
+        <v>-0.00683687335659328</v>
+      </c>
+      <c r="H76">
+        <v>0.01933601330804138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07003422002961891</v>
+        <v>0.04924772579868451</v>
       </c>
       <c r="C77">
-        <v>-0.009971235752755509</v>
+        <v>0.06743457415648403</v>
       </c>
       <c r="D77">
-        <v>-0.07280759765195786</v>
+        <v>-0.01327637883868961</v>
       </c>
       <c r="E77">
-        <v>-0.1147425772431213</v>
+        <v>-0.03363456419403458</v>
       </c>
       <c r="F77">
-        <v>-0.01393808672786558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.005960653095975872</v>
+      </c>
+      <c r="G77">
+        <v>-0.02124895282767296</v>
+      </c>
+      <c r="H77">
+        <v>-0.027667843048836</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03166550897009619</v>
+        <v>0.04043239196873083</v>
       </c>
       <c r="C78">
-        <v>0.007400901881453894</v>
+        <v>0.05846321373133058</v>
       </c>
       <c r="D78">
-        <v>-0.051050157984071</v>
+        <v>-0.004615613188418977</v>
       </c>
       <c r="E78">
-        <v>-0.05088323397032941</v>
+        <v>-0.01169406387239971</v>
       </c>
       <c r="F78">
-        <v>0.05605281664698692</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04345068701747694</v>
+      </c>
+      <c r="G78">
+        <v>-0.02332301600108816</v>
+      </c>
+      <c r="H78">
+        <v>0.0069190172707649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2419790794597337</v>
+        <v>0.06293221138183705</v>
       </c>
       <c r="C80">
-        <v>0.9383477612345216</v>
+        <v>0.09159178590758904</v>
       </c>
       <c r="D80">
-        <v>0.1000176632809071</v>
+        <v>-0.01190125525099816</v>
       </c>
       <c r="E80">
-        <v>-0.136026072797849</v>
+        <v>0.07326468230731163</v>
       </c>
       <c r="F80">
-        <v>-0.06168854365825934</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02875436394838105</v>
+      </c>
+      <c r="G80">
+        <v>-0.8733711361814487</v>
+      </c>
+      <c r="H80">
+        <v>-0.3790702757357469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2143137515793897</v>
+        <v>0.1472364650848966</v>
       </c>
       <c r="C81">
-        <v>-0.01428771631676656</v>
+        <v>0.102737390400433</v>
       </c>
       <c r="D81">
-        <v>-0.06956978758885035</v>
+        <v>0.01920155496692416</v>
       </c>
       <c r="E81">
-        <v>0.1294874246462476</v>
+        <v>0.04110607534583861</v>
       </c>
       <c r="F81">
-        <v>0.04947795223010603</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1446945033008182</v>
+      </c>
+      <c r="G81">
+        <v>-0.01232154019952245</v>
+      </c>
+      <c r="H81">
+        <v>0.0213273123313399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03246045304031799</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02180296333346393</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002634164667212014</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02170248763339727</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.001516903555457711</v>
+      </c>
+      <c r="G82">
+        <v>-0.003008810986298483</v>
+      </c>
+      <c r="H82">
+        <v>0.01247309057384706</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03441340951136953</v>
+        <v>0.02577367399872474</v>
       </c>
       <c r="C83">
-        <v>-0.007211045027216342</v>
+        <v>0.01839829253164141</v>
       </c>
       <c r="D83">
-        <v>-0.003771740934235523</v>
+        <v>-0.004232521265439707</v>
       </c>
       <c r="E83">
-        <v>-0.0365309228883774</v>
+        <v>-0.01973663192312834</v>
       </c>
       <c r="F83">
-        <v>0.04106234387379595</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02651604135154261</v>
+      </c>
+      <c r="G83">
+        <v>-0.02643364586603912</v>
+      </c>
+      <c r="H83">
+        <v>0.007273574945579042</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2578669334854906</v>
+        <v>0.2329238461873613</v>
       </c>
       <c r="C85">
-        <v>-0.03895632561952312</v>
+        <v>0.1876617760852433</v>
       </c>
       <c r="D85">
-        <v>-0.1138866110904393</v>
+        <v>0.02057266572686601</v>
       </c>
       <c r="E85">
-        <v>0.1905504722105077</v>
+        <v>0.0979954279123867</v>
       </c>
       <c r="F85">
-        <v>0.00826325636122931</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2112307607022459</v>
+      </c>
+      <c r="G85">
+        <v>0.05960028846236325</v>
+      </c>
+      <c r="H85">
+        <v>0.06230580866206668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007994509524593251</v>
+        <v>0.006029088815502057</v>
       </c>
       <c r="C86">
-        <v>0.00934473181807974</v>
+        <v>0.0285803883092547</v>
       </c>
       <c r="D86">
-        <v>-0.03683347285404739</v>
+        <v>-0.009408137357066661</v>
       </c>
       <c r="E86">
-        <v>-0.04573000303400197</v>
+        <v>-0.01007357708057103</v>
       </c>
       <c r="F86">
-        <v>0.05461948707898264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02215862166424466</v>
+      </c>
+      <c r="G86">
+        <v>-0.04130752644364924</v>
+      </c>
+      <c r="H86">
+        <v>-0.02904647429701878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02698561133458233</v>
+        <v>0.01241133776878845</v>
       </c>
       <c r="C87">
-        <v>0.00678386768581934</v>
+        <v>0.02449084572830162</v>
       </c>
       <c r="D87">
-        <v>-0.03030430926009241</v>
+        <v>-0.01072879602760625</v>
       </c>
       <c r="E87">
-        <v>-0.08878559408555675</v>
+        <v>-0.07211529222267976</v>
       </c>
       <c r="F87">
-        <v>0.06599193694948077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06923884985122357</v>
+      </c>
+      <c r="G87">
+        <v>-0.03265823119882372</v>
+      </c>
+      <c r="H87">
+        <v>-0.01771463592053407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04285443623985915</v>
+        <v>0.07522006837753495</v>
       </c>
       <c r="C88">
-        <v>-0.008604762484639678</v>
+        <v>0.04111133714215657</v>
       </c>
       <c r="D88">
-        <v>0.00376442885105319</v>
+        <v>-0.01881120659981407</v>
       </c>
       <c r="E88">
-        <v>0.007768797794976191</v>
+        <v>0.01788979620155896</v>
       </c>
       <c r="F88">
-        <v>0.001000108780660363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01354279788121192</v>
+      </c>
+      <c r="G88">
+        <v>-0.01792704360646489</v>
+      </c>
+      <c r="H88">
+        <v>0.02249042240604454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1409097882992846</v>
+        <v>0.2468081356397853</v>
       </c>
       <c r="C89">
-        <v>-0.08075651696301314</v>
+        <v>-0.3588880885959942</v>
       </c>
       <c r="D89">
-        <v>0.3774848866533595</v>
+        <v>0.01706049807870788</v>
       </c>
       <c r="E89">
-        <v>-0.01402153652584861</v>
+        <v>0.002063651613518763</v>
       </c>
       <c r="F89">
-        <v>0.03548302832998569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02948087252877754</v>
+      </c>
+      <c r="G89">
+        <v>-0.01999621903299919</v>
+      </c>
+      <c r="H89">
+        <v>0.002497720547078944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07630912315844784</v>
+        <v>0.2007319816960968</v>
       </c>
       <c r="C90">
-        <v>-0.07207688442608474</v>
+        <v>-0.3280785375506472</v>
       </c>
       <c r="D90">
-        <v>0.3423574173337702</v>
+        <v>0.0175126461103567</v>
       </c>
       <c r="E90">
-        <v>0.01309346006199332</v>
+        <v>-0.009413189863971112</v>
       </c>
       <c r="F90">
-        <v>-0.01571523656649772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04547311078935566</v>
+      </c>
+      <c r="G90">
+        <v>0.001769801524497096</v>
+      </c>
+      <c r="H90">
+        <v>-0.00436093701455006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.294251551582254</v>
+        <v>0.2062058621465832</v>
       </c>
       <c r="C91">
-        <v>-0.03777831287587949</v>
+        <v>0.1376571087981421</v>
       </c>
       <c r="D91">
-        <v>-0.1307596738686371</v>
+        <v>0.02813289155045102</v>
       </c>
       <c r="E91">
-        <v>0.2242771085565117</v>
+        <v>0.07932738219956501</v>
       </c>
       <c r="F91">
-        <v>-0.0722946975163654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2068513523363564</v>
+      </c>
+      <c r="G91">
+        <v>0.01281714689669189</v>
+      </c>
+      <c r="H91">
+        <v>0.02440155853223026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2161071081927785</v>
+        <v>0.2306917691973143</v>
       </c>
       <c r="C92">
-        <v>-0.08796923865710209</v>
+        <v>-0.2537559219224736</v>
       </c>
       <c r="D92">
-        <v>0.3808755267479365</v>
+        <v>0.05973115682966215</v>
       </c>
       <c r="E92">
-        <v>0.09751383881076971</v>
+        <v>-0.01335900343664162</v>
       </c>
       <c r="F92">
-        <v>0.07102414710434503</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1396571687057964</v>
+      </c>
+      <c r="G92">
+        <v>-0.05748718037940474</v>
+      </c>
+      <c r="H92">
+        <v>0.02402574994477083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1286204683183903</v>
+        <v>0.2321110540865594</v>
       </c>
       <c r="C93">
-        <v>-0.1010747324814459</v>
+        <v>-0.3190469186412321</v>
       </c>
       <c r="D93">
-        <v>0.393206505391806</v>
+        <v>0.02445671804849547</v>
       </c>
       <c r="E93">
-        <v>-0.03141945097788489</v>
+        <v>-0.02200942479907184</v>
       </c>
       <c r="F93">
-        <v>-0.07469999173298844</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02050607682697234</v>
+      </c>
+      <c r="G93">
+        <v>0.01266274703694821</v>
+      </c>
+      <c r="H93">
+        <v>-0.04005965337094107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3299745110719424</v>
+        <v>0.2685968217930131</v>
       </c>
       <c r="C94">
-        <v>-0.07348580195890012</v>
+        <v>0.1630105063450641</v>
       </c>
       <c r="D94">
-        <v>-0.08486656042545251</v>
+        <v>0.01688029215189549</v>
       </c>
       <c r="E94">
-        <v>0.2303426296113234</v>
+        <v>0.09386561535347474</v>
       </c>
       <c r="F94">
-        <v>0.07423967594086368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3467154724166734</v>
+      </c>
+      <c r="G94">
+        <v>0.07856839393326656</v>
+      </c>
+      <c r="H94">
+        <v>0.2358333539437093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0652603240563611</v>
+        <v>0.07366450761757112</v>
       </c>
       <c r="C95">
-        <v>-0.07328771617913528</v>
+        <v>0.1083939552406912</v>
       </c>
       <c r="D95">
-        <v>-0.03765253331803509</v>
+        <v>0.007733306241118578</v>
       </c>
       <c r="E95">
-        <v>0.02343740807527816</v>
+        <v>-0.05955825914508325</v>
       </c>
       <c r="F95">
-        <v>0.07025276434386883</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1300249991092463</v>
+      </c>
+      <c r="G95">
+        <v>0.05785811379518389</v>
+      </c>
+      <c r="H95">
+        <v>0.02551129809219873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1903697992913226</v>
+        <v>0.21516417843968</v>
       </c>
       <c r="C98">
-        <v>-0.0665833027608308</v>
+        <v>0.05450734847991002</v>
       </c>
       <c r="D98">
-        <v>0.03504098625123647</v>
+        <v>0.02324627934019339</v>
       </c>
       <c r="E98">
-        <v>-0.1786815530820835</v>
+        <v>-0.05432903487272472</v>
       </c>
       <c r="F98">
-        <v>0.05572526621101574</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2552557537452531</v>
+      </c>
+      <c r="G98">
+        <v>0.04553599426377498</v>
+      </c>
+      <c r="H98">
+        <v>-0.06175503053256515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004516007282344024</v>
+        <v>0.004441739829828213</v>
       </c>
       <c r="C101">
-        <v>0.005272620693670253</v>
+        <v>0.01823503683427161</v>
       </c>
       <c r="D101">
-        <v>-0.03027812625525368</v>
+        <v>-0.007605781166436981</v>
       </c>
       <c r="E101">
-        <v>-0.1110831638663082</v>
+        <v>-0.02962743461072128</v>
       </c>
       <c r="F101">
-        <v>0.1772805213596335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0004172715352472298</v>
+      </c>
+      <c r="G101">
+        <v>-0.03911538305079475</v>
+      </c>
+      <c r="H101">
+        <v>0.03606020404814717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1449179553426792</v>
+        <v>0.1179484794070385</v>
       </c>
       <c r="C102">
-        <v>-0.01627474520559942</v>
+        <v>0.0838443912401475</v>
       </c>
       <c r="D102">
-        <v>-0.04693088925901615</v>
+        <v>0.001445352708976884</v>
       </c>
       <c r="E102">
-        <v>0.1012626381084116</v>
+        <v>0.04543909970751218</v>
       </c>
       <c r="F102">
-        <v>-0.03281777704759505</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0676895015889573</v>
+      </c>
+      <c r="G102">
+        <v>0.01407241996888048</v>
+      </c>
+      <c r="H102">
+        <v>0.003460103781271211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04106292473564931</v>
+        <v>0.007593450839660308</v>
       </c>
       <c r="C103">
-        <v>0.01376572154590987</v>
+        <v>0.00771907537481964</v>
       </c>
       <c r="D103">
-        <v>-0.017310035920327</v>
+        <v>3.681954400724381e-05</v>
       </c>
       <c r="E103">
-        <v>0.01882811870636676</v>
+        <v>0.001528204701194379</v>
       </c>
       <c r="F103">
-        <v>0.007057500843045497</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01350195990452331</v>
+      </c>
+      <c r="G103">
+        <v>-0.01549270078173873</v>
+      </c>
+      <c r="H103">
+        <v>-0.005324450525936295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0584359673518399</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.05272632113744415</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9838077609506133</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04497700095969089</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.02530016733508438</v>
+      </c>
+      <c r="G104">
+        <v>-0.02493038404550953</v>
+      </c>
+      <c r="H104">
+        <v>0.108964527027159</v>
       </c>
     </row>
   </sheetData>
